--- a/assets/spreadsheets/calculateur-cout-et-temps-impression-3D-FDM.xlsx
+++ b/assets/spreadsheets/calculateur-cout-et-temps-impression-3D-FDM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\Emploi\Expériences\Articles\Calculateur de cout et du temps de fabrication de l'impression 3D FFF-FDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A759C0D3-7E0A-4ACF-A92F-66287E99C828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8F9E34-0904-45CB-B381-945882C2A766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,18 +620,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1559,23 +1559,23 @@
       <c r="G26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="37"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1609,7 +1609,7 @@
       <c r="C29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J29" s="37" t="str">
+      <c r="J29" s="39" t="str">
         <f>ROUND(F2,2)&amp;" mm"</f>
         <v>0,2 mm</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="G30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J30" s="37"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -1995,59 +1995,55 @@
       <c r="G71" s="7"/>
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="36"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-      <c r="G75" s="36"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
     </row>
     <row r="78" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38"/>
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="36"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
-      <c r="G79" s="36"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38"/>
+      <c r="E79" s="38"/>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="A75:G79"/>
     <mergeCell ref="J29:J30"/>
@@ -2055,6 +2051,11 @@
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="E57:G57"/>
     <mergeCell ref="E60:G60"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/assets/spreadsheets/calculateur-cout-et-temps-impression-3D-FDM.xlsx
+++ b/assets/spreadsheets/calculateur-cout-et-temps-impression-3D-FDM.xlsx
@@ -349,7 +349,7 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="20"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -492,15 +492,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -508,7 +508,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -520,39 +520,39 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -560,79 +560,79 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,9 +735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>618120</xdr:colOff>
+      <xdr:colOff>617400</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -746,8 +746,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12991680" y="1555920"/>
-          <a:ext cx="2143080" cy="647640"/>
+          <a:off x="12994920" y="1555920"/>
+          <a:ext cx="2143800" cy="646920"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -755,11 +755,10 @@
         <a:solidFill>
           <a:srgbClr val="729fcf"/>
         </a:solidFill>
-        <a:ln>
+        <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="729fcf"/>
           </a:solidFill>
-          <a:round/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -799,7 +798,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12981960" y="2144160"/>
+          <a:off x="12985200" y="2144160"/>
           <a:ext cx="360" cy="348840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -834,7 +833,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15135480" y="2144160"/>
+          <a:off x="15140160" y="2144160"/>
           <a:ext cx="360" cy="348840"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -869,8 +868,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12510360" y="1564560"/>
-          <a:ext cx="529200" cy="360"/>
+          <a:off x="12512880" y="1564560"/>
+          <a:ext cx="529920" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -904,8 +903,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="12520080" y="2212920"/>
-          <a:ext cx="395640" cy="360"/>
+          <a:off x="12522600" y="2212920"/>
+          <a:ext cx="396360" cy="360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -929,11 +928,11 @@
   </sheetPr>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="55.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12"/>
@@ -942,8 +941,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="8" style="1" width="11.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="19" style="1" width="11.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="8" style="1" width="11.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,7 +1701,6 @@
       <c r="G79" s="33"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
   <mergeCells count="12">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
@@ -1746,7 +1743,7 @@
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.29"/>

--- a/assets/spreadsheets/calculateur-cout-et-temps-impression-3D-FDM.xlsx
+++ b/assets/spreadsheets/calculateur-cout-et-temps-impression-3D-FDM.xlsx
@@ -266,8 +266,28 @@
     <t xml:space="preserve">Facteur de correction du montant total</t>
   </si>
   <si>
-    <t xml:space="preserve">⚠️ ATTENTION: Ce fichier ne tient pas compte des supports d'impressions ⚠️
-⚠️ ATTENTION: Ce fichier ne tient pas compte des variations de vitesses d'impression ⚠</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">⚠️ ATTENTION: Ce fichier ne tient pas compte des supports d'impressions ⚠️
+⚠️ ATTENTION: Ce fichier ne tient pas compte des variations de vitesses d'impression </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="18"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">⚠️</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">LISTE MATÉRIAUX</t>
@@ -308,7 +328,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -354,6 +374,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -735,9 +762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>617400</xdr:colOff>
+      <xdr:colOff>617040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -747,7 +774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12994920" y="1555920"/>
-          <a:ext cx="2143800" cy="646920"/>
+          <a:ext cx="2143440" cy="646560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -928,8 +955,8 @@
   </sheetPr>
   <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>

--- a/assets/spreadsheets/calculateur-cout-et-temps-impression-3D-FDM.xlsx
+++ b/assets/spreadsheets/calculateur-cout-et-temps-impression-3D-FDM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t xml:space="preserve">SPÉCIFICATIONS DE LA PIÈCE</t>
   </si>
@@ -266,28 +266,12 @@
     <t xml:space="preserve">Facteur de correction du montant total</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">⚠️ ATTENTION: Ce fichier ne tient pas compte des supports d'impressions ⚠️
-⚠️ ATTENTION: Ce fichier ne tient pas compte des variations de vitesses d'impression </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="18"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">⚠️</t>
-    </r>
+    <t xml:space="preserve">⚠️ ATTENTION: Ce fichier ne tient pas compte des supports d'impressions ⚠️
+⚠️ ATTENTION: Ce fichier ne tient pas compte des variations de vitesses d'impression ⚠️
+⚠️ ATTENTION: Ce fichier ne tient pas compte de étapes de pré-impression et changements d’outils ⚠️</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Par Simon Rebière, le 03/09/2025</t>
   </si>
   <si>
     <t xml:space="preserve">LISTE MATÉRIAUX</t>
@@ -369,18 +353,19 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="18"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="18"/>
-      <color rgb="FFFFFFFF"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -405,7 +390,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -435,7 +420,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
     <fill>
@@ -514,7 +499,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -649,6 +634,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -713,7 +702,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -724,7 +713,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -762,9 +751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>617040</xdr:colOff>
+      <xdr:colOff>616320</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -774,7 +763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12994920" y="1555920"/>
-          <a:ext cx="2143440" cy="646560"/>
+          <a:ext cx="2142720" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartTerminator">
           <a:avLst/>
@@ -953,10 +942,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -1727,7 +1716,13 @@
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
     </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection sheet="true" password="8577" objects="true" scenarios="true"/>
   <mergeCells count="12">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
@@ -1767,7 +1762,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1780,663 +1775,663 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="A1" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="36" t="s">
+      <c r="A2" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="C2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="38" t="n">
+      <c r="A3" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="39" t="n">
         <v>1.25</v>
       </c>
-      <c r="C3" s="39" t="n">
+      <c r="C3" s="40" t="n">
         <v>2.2</v>
       </c>
-      <c r="D3" s="40" t="n">
+      <c r="D3" s="41" t="n">
         <v>36.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="38" t="n">
+      <c r="A4" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="39" t="n">
         <v>1.08</v>
       </c>
-      <c r="C4" s="39" t="n">
+      <c r="C4" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="40" t="n">
+      <c r="D4" s="41" t="n">
         <v>25.99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="38" t="n">
+      <c r="B5" s="39" t="n">
         <v>1.39</v>
       </c>
-      <c r="C5" s="39" t="n">
+      <c r="C5" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="40" t="n">
+      <c r="D5" s="41" t="n">
         <v>20.51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="38" t="n">
+      <c r="A6" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="39" t="n">
         <v>1.2</v>
       </c>
-      <c r="C6" s="39" t="n">
+      <c r="C6" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="40" t="n">
+      <c r="D6" s="41" t="n">
         <v>38.9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="38" t="n">
+      <c r="A7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="39" t="n">
         <v>1.2</v>
       </c>
-      <c r="C7" s="39" t="n">
+      <c r="C7" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="40" t="n">
+      <c r="D7" s="41" t="n">
         <v>25.99</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="41"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="41"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="37"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="41"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="41"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="37"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="41"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="41"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="40"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="41"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="40"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="41"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="39"/>
-      <c r="D47" s="40"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="40"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="41"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="40"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="41"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="41"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="40"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="41"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="40"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="40"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="41"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="40"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="41"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="40"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="41"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
-      <c r="D60" s="40"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="41"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="40"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="41"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="39"/>
-      <c r="D63" s="40"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="41"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="37"/>
-      <c r="B64" s="38"/>
-      <c r="C64" s="39"/>
-      <c r="D64" s="40"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="41"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="37"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="40"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="41"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="37"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="40"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="41"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="37"/>
-      <c r="B67" s="38"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="40"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="37"/>
-      <c r="B68" s="38"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="40"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="41"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="37"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="40"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="37"/>
-      <c r="B70" s="38"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="40"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="41"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="37"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="39"/>
-      <c r="D71" s="40"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="41"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="37"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="39"/>
-      <c r="D72" s="40"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="41"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="37"/>
-      <c r="B73" s="38"/>
-      <c r="C73" s="39"/>
-      <c r="D73" s="40"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="41"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="37"/>
-      <c r="B74" s="38"/>
-      <c r="C74" s="39"/>
-      <c r="D74" s="40"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="41"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="37"/>
-      <c r="B75" s="38"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="41"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="37"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="39"/>
-      <c r="D76" s="40"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="40"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="41"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="37"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="40"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="41"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="37"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="40"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="41"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="37"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="39"/>
-      <c r="D80" s="40"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="41"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="37"/>
-      <c r="B81" s="38"/>
-      <c r="C81" s="39"/>
-      <c r="D81" s="40"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="41"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="37"/>
-      <c r="B82" s="38"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="40"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="41"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="37"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="40"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="41"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="37"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="39"/>
-      <c r="D84" s="40"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="41"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="37"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="39"/>
-      <c r="D85" s="40"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="41"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="37"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="40"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="41"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="37"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="39"/>
-      <c r="D87" s="40"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="41"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="37"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="39"/>
-      <c r="D88" s="40"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="41"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="37"/>
-      <c r="B89" s="38"/>
-      <c r="C89" s="39"/>
-      <c r="D89" s="40"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="39"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="41"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="37"/>
-      <c r="B90" s="38"/>
-      <c r="C90" s="39"/>
-      <c r="D90" s="40"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="41"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="37"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="40"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="41"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="37"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="39"/>
-      <c r="D92" s="40"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="41"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="37"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="39"/>
-      <c r="D93" s="40"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="41"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="37"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="39"/>
-      <c r="D94" s="40"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="41"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="37"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="40"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="41"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="37"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="39"/>
-      <c r="D96" s="40"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="41"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="37"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="39"/>
-      <c r="D97" s="40"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="41"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="37"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="39"/>
-      <c r="D98" s="40"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="41"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="37"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="39"/>
-      <c r="D99" s="40"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="41"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="37"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="39"/>
-      <c r="D100" s="40"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="41"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="37"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="39"/>
-      <c r="D101" s="40"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <sheetProtection sheet="true" password="8577" objects="true" scenarios="true"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
